--- a/Wknd_Sched_Builder/SampAssn.xlsx
+++ b/Wknd_Sched_Builder/SampAssn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7CB60-B031-4683-8D9B-9DCE2D16B22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A2A2B-7665-4BA4-A984-F987D1777ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="28725" yWindow="30" windowWidth="21600" windowHeight="11235" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="214">
   <si>
     <t>AssnType</t>
   </si>
@@ -764,6 +764,27 @@
   </si>
   <si>
     <t>VarioPak</t>
+  </si>
+  <si>
+    <t>Pouch Packer1</t>
+  </si>
+  <si>
+    <t>Pouch Packer2</t>
+  </si>
+  <si>
+    <t>Pouch Packer3</t>
+  </si>
+  <si>
+    <t>Pouch Packer4</t>
+  </si>
+  <si>
+    <t>Pouch Packer5</t>
+  </si>
+  <si>
+    <t>Pouch Packer6</t>
+  </si>
+  <si>
+    <t>Pouch Packer7</t>
   </si>
 </sst>
 </file>
@@ -856,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -885,6 +906,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,8 +1588,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}" name="TrainAssnMtx" displayName="TrainAssnMtx" ref="A1:B56" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B56" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}" name="TrainAssnMtx" displayName="TrainAssnMtx" ref="A1:B63" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:B63" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A5250A11-FD2F-47C9-ABD9-9A441218134C}" name="Display_Name" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F2284C7C-D714-44C5-A91E-0A5ADCBD9330}" name="Train_Mtx_Name" dataDxfId="0"/>
@@ -1840,7 +1864,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5241,7 +5265,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5535,10 +5559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27494956-B098-494C-8CA2-BB2D03266D8E}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6093,7 +6117,64 @@
         <v>72</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Wknd_Sched_Builder/SampAssn.xlsx
+++ b/Wknd_Sched_Builder/SampAssn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A2A2B-7665-4BA4-A984-F987D1777ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ADFDA1-F799-45B8-9BCB-D452E52801B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28725" yWindow="30" windowWidth="21600" windowHeight="11235" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4692" yWindow="372" windowWidth="12588" windowHeight="11952" tabRatio="707" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -1863,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2579,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
